--- a/src/customerView/柜面参数清单v1.0.xlsx
+++ b/src/customerView/柜面参数清单v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="交易信息表" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14107" uniqueCount="2658">
   <si>
     <t>分组</t>
   </si>
@@ -9608,12 +9608,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9716,6 +9716,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -9723,38 +9724,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9770,38 +9742,51 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9824,7 +9809,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9838,9 +9830,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -9949,7 +9960,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9973,19 +10068,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9997,109 +10092,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10158,24 +10169,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10210,6 +10208,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -10227,27 +10249,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10256,7 +10267,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10265,126 +10276,126 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -11163,37 +11174,37 @@
   <sheetPr/>
   <dimension ref="A1:T428"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A411" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A427" sqref="$A427:$XFD427"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.6296296296296" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="27.6333333333333" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="31.75" style="85" customWidth="1"/>
-    <col min="2" max="2" width="9.62962962962963" style="85" customWidth="1"/>
-    <col min="3" max="3" width="11.8796296296296" style="86" customWidth="1"/>
-    <col min="4" max="4" width="27.3796296296296" style="85" customWidth="1"/>
-    <col min="5" max="5" width="11.8796296296296" style="86" customWidth="1"/>
-    <col min="6" max="6" width="53.6296296296296" style="85" customWidth="1"/>
-    <col min="7" max="7" width="55.6296296296296" style="85" customWidth="1"/>
-    <col min="8" max="8" width="11.8796296296296" style="85" customWidth="1"/>
-    <col min="9" max="9" width="16.3796296296296" style="85" customWidth="1"/>
+    <col min="2" max="2" width="9.63333333333333" style="85" customWidth="1"/>
+    <col min="3" max="3" width="11.8833333333333" style="86" customWidth="1"/>
+    <col min="4" max="4" width="27.3833333333333" style="85" customWidth="1"/>
+    <col min="5" max="5" width="11.8833333333333" style="86" customWidth="1"/>
+    <col min="6" max="6" width="53.6333333333333" style="85" customWidth="1"/>
+    <col min="7" max="7" width="55.6333333333333" style="85" customWidth="1"/>
+    <col min="8" max="8" width="11.8833333333333" style="85" customWidth="1"/>
+    <col min="9" max="9" width="16.3833333333333" style="85" customWidth="1"/>
     <col min="10" max="11" width="20.5" style="85" customWidth="1"/>
-    <col min="12" max="12" width="9.62962962962963" style="85" customWidth="1"/>
-    <col min="13" max="13" width="13.3796296296296" style="85" customWidth="1"/>
-    <col min="14" max="14" width="14.1296296296296" style="85" customWidth="1"/>
-    <col min="15" max="15" width="9.62962962962963" style="85" customWidth="1"/>
-    <col min="16" max="16" width="14.1296296296296" style="85" customWidth="1"/>
-    <col min="17" max="17" width="18.6296296296296" style="85" customWidth="1"/>
-    <col min="18" max="18" width="14.1296296296296" style="85" customWidth="1"/>
+    <col min="12" max="12" width="9.63333333333333" style="85" customWidth="1"/>
+    <col min="13" max="13" width="13.3833333333333" style="85" customWidth="1"/>
+    <col min="14" max="14" width="14.1333333333333" style="85" customWidth="1"/>
+    <col min="15" max="15" width="9.63333333333333" style="85" customWidth="1"/>
+    <col min="16" max="16" width="14.1333333333333" style="85" customWidth="1"/>
+    <col min="17" max="17" width="18.6333333333333" style="85" customWidth="1"/>
+    <col min="18" max="18" width="14.1333333333333" style="85" customWidth="1"/>
     <col min="19" max="19" width="25" style="85" customWidth="1"/>
-    <col min="20" max="20" width="28.6296296296296" style="85" customWidth="1"/>
-    <col min="21" max="16384" width="27.6296296296296" style="85"/>
+    <col min="20" max="20" width="28.6333333333333" style="85" customWidth="1"/>
+    <col min="21" max="16384" width="27.6333333333333" style="85"/>
   </cols>
   <sheetData>
-    <row r="1" s="73" customFormat="1" ht="15.9" spans="1:20">
+    <row r="1" s="73" customFormat="1" ht="15" spans="1:20">
       <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
@@ -11253,7 +11264,7 @@
       </c>
       <c r="T1" s="87"/>
     </row>
-    <row r="2" s="74" customFormat="1" ht="15.15" spans="1:20">
+    <row r="2" s="74" customFormat="1" ht="14.25" spans="1:20">
       <c r="A2" s="89" t="s">
         <v>19</v>
       </c>
@@ -36431,15 +36442,15 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.37962962962963" customWidth="1"/>
-    <col min="2" max="2" width="12.1296296296296" customWidth="1"/>
-    <col min="3" max="4" width="17.8796296296296" customWidth="1"/>
-    <col min="5" max="5" width="54.1296296296296" customWidth="1"/>
+    <col min="1" max="1" width="9.38333333333333" customWidth="1"/>
+    <col min="2" max="2" width="12.1333333333333" customWidth="1"/>
+    <col min="3" max="4" width="17.8833333333333" customWidth="1"/>
+    <col min="5" max="5" width="54.1333333333333" customWidth="1"/>
     <col min="6" max="6" width="9.25" customWidth="1"/>
-    <col min="7" max="7" width="8.87962962962963" customWidth="1"/>
-    <col min="9" max="9" width="11.3796296296296" customWidth="1"/>
+    <col min="7" max="7" width="8.88333333333333" customWidth="1"/>
+    <col min="9" max="9" width="11.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -36757,7 +36768,7 @@
       <selection activeCell="A53" sqref="A53:C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="17.25" customWidth="1"/>
@@ -37439,24 +37450,24 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="13.8796296296296" customWidth="1"/>
-    <col min="2" max="2" width="20.3796296296296" customWidth="1"/>
-    <col min="3" max="3" width="17.1296296296296" customWidth="1"/>
-    <col min="4" max="6" width="13.8796296296296" customWidth="1"/>
-    <col min="7" max="7" width="10.6296296296296" customWidth="1"/>
-    <col min="8" max="8" width="64.1296296296296" customWidth="1"/>
-    <col min="9" max="9" width="13.8796296296296" customWidth="1"/>
+    <col min="1" max="1" width="13.8833333333333" customWidth="1"/>
+    <col min="2" max="2" width="20.3833333333333" customWidth="1"/>
+    <col min="3" max="3" width="17.1333333333333" customWidth="1"/>
+    <col min="4" max="6" width="13.8833333333333" customWidth="1"/>
+    <col min="7" max="7" width="10.6333333333333" customWidth="1"/>
+    <col min="8" max="8" width="64.1333333333333" customWidth="1"/>
+    <col min="9" max="9" width="13.8833333333333" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="13.8796296296296" customWidth="1"/>
-    <col min="12" max="15" width="12.3796296296296" customWidth="1"/>
+    <col min="11" max="11" width="13.8833333333333" customWidth="1"/>
+    <col min="12" max="15" width="12.3833333333333" customWidth="1"/>
     <col min="16" max="16" width="33.5" customWidth="1"/>
-    <col min="17" max="20" width="13.8796296296296" customWidth="1"/>
-    <col min="21" max="21" width="10.6296296296296" customWidth="1"/>
+    <col min="17" max="20" width="13.8833333333333" customWidth="1"/>
+    <col min="21" max="21" width="10.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.4" spans="1:21">
+    <row r="1" ht="20.25" spans="1:21">
       <c r="A1" s="54" t="s">
         <v>2057</v>
       </c>
@@ -37690,7 +37701,7 @@
       </c>
       <c r="U4" s="58"/>
     </row>
-    <row r="5" s="53" customFormat="1" ht="28.8" spans="1:21">
+    <row r="5" s="53" customFormat="1" ht="27" spans="1:21">
       <c r="A5" s="58" t="s">
         <v>2093</v>
       </c>
@@ -37861,7 +37872,7 @@
       </c>
       <c r="U7" s="58"/>
     </row>
-    <row r="8" s="53" customFormat="1" ht="28.8" spans="1:21">
+    <row r="8" s="53" customFormat="1" ht="27" spans="1:21">
       <c r="A8" s="58" t="s">
         <v>2106</v>
       </c>
@@ -37941,26 +37952,26 @@
       <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.6296296296296" customWidth="1"/>
+    <col min="1" max="1" width="22.6333333333333" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="20.8796296296296" customWidth="1"/>
-    <col min="4" max="4" width="16.1296296296296" customWidth="1"/>
+    <col min="3" max="3" width="20.8833333333333" customWidth="1"/>
+    <col min="4" max="4" width="16.1333333333333" customWidth="1"/>
     <col min="5" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="11.6296296296296" customWidth="1"/>
+    <col min="8" max="8" width="11.6333333333333" customWidth="1"/>
     <col min="9" max="9" width="35" customWidth="1"/>
-    <col min="10" max="11" width="16.1296296296296" customWidth="1"/>
+    <col min="10" max="11" width="16.1333333333333" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="21.6296296296296" customWidth="1"/>
+    <col min="13" max="13" width="21.6333333333333" customWidth="1"/>
     <col min="14" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="11.6296296296296" customWidth="1"/>
-    <col min="17" max="17" width="39.3796296296296" customWidth="1"/>
-    <col min="18" max="19" width="11.6296296296296" customWidth="1"/>
-    <col min="20" max="20" width="51.8796296296296" customWidth="1"/>
+    <col min="16" max="16" width="11.6333333333333" customWidth="1"/>
+    <col min="17" max="17" width="39.3833333333333" customWidth="1"/>
+    <col min="18" max="19" width="11.6333333333333" customWidth="1"/>
+    <col min="20" max="20" width="51.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="61.2" spans="1:20">
+    <row r="1" ht="60.75" spans="1:20">
       <c r="A1" s="34" t="s">
         <v>2109</v>
       </c>
@@ -48531,28 +48542,28 @@
   <sheetPr/>
   <dimension ref="A1:V60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.5" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="26.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="19.1296296296296" customWidth="1"/>
-    <col min="4" max="4" width="16.1296296296296" customWidth="1"/>
+    <col min="3" max="3" width="19.1333333333333" customWidth="1"/>
+    <col min="4" max="4" width="16.1333333333333" customWidth="1"/>
     <col min="5" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="11.6296296296296" customWidth="1"/>
+    <col min="8" max="8" width="11.6333333333333" customWidth="1"/>
     <col min="9" max="9" width="35" customWidth="1"/>
     <col min="10" max="11" width="25.25" customWidth="1"/>
     <col min="12" max="12" width="30.5" customWidth="1"/>
-    <col min="13" max="13" width="33.3796296296296" customWidth="1"/>
+    <col min="13" max="13" width="33.3833333333333" customWidth="1"/>
     <col min="14" max="17" width="13" customWidth="1"/>
-    <col min="18" max="21" width="11.6296296296296" customWidth="1"/>
+    <col min="18" max="21" width="11.6333333333333" customWidth="1"/>
     <col min="22" max="22" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="61.2" spans="1:22">
+    <row r="1" ht="40.5" spans="1:22">
       <c r="A1" s="34" t="s">
         <v>2265</v>
       </c>
@@ -51712,23 +51723,23 @@
       <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.25" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="21.25" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.8796296296296" customWidth="1"/>
-    <col min="2" max="2" width="13.8796296296296" customWidth="1"/>
-    <col min="3" max="3" width="20.3796296296296" customWidth="1"/>
-    <col min="4" max="4" width="17.1296296296296" customWidth="1"/>
-    <col min="5" max="7" width="13.8796296296296" customWidth="1"/>
-    <col min="8" max="8" width="11.3796296296296" customWidth="1"/>
+    <col min="1" max="1" width="18.8833333333333" customWidth="1"/>
+    <col min="2" max="2" width="13.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="20.3833333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.1333333333333" customWidth="1"/>
+    <col min="5" max="7" width="13.8833333333333" customWidth="1"/>
+    <col min="8" max="8" width="11.3833333333333" customWidth="1"/>
     <col min="9" max="9" width="26.5" customWidth="1"/>
-    <col min="10" max="10" width="21.1296296296296" customWidth="1"/>
-    <col min="11" max="12" width="13.8796296296296" customWidth="1"/>
-    <col min="13" max="16" width="12.3796296296296" customWidth="1"/>
+    <col min="10" max="10" width="21.1333333333333" customWidth="1"/>
+    <col min="11" max="12" width="13.8833333333333" customWidth="1"/>
+    <col min="13" max="16" width="12.3833333333333" customWidth="1"/>
     <col min="17" max="17" width="26.5" customWidth="1"/>
-    <col min="18" max="18" width="13.8796296296296" customWidth="1"/>
+    <col min="18" max="18" width="13.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.4" spans="1:18">
+    <row r="1" ht="20.25" spans="1:18">
       <c r="A1" s="14" t="s">
         <v>2348</v>
       </c>
@@ -54065,7 +54076,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" ht="14.25" spans="1:18">
       <c r="A54" s="17" t="s">
         <v>2348</v>
       </c>
@@ -54117,7 +54128,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" ht="14.25" spans="1:18">
       <c r="A55" s="17" t="s">
         <v>2348</v>
       </c>
@@ -54170,7 +54181,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" ht="14.25" spans="1:18">
       <c r="A56" s="17" t="s">
         <v>2348</v>
       </c>
@@ -54222,7 +54233,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" ht="14.25" spans="1:18">
       <c r="A57" s="17" t="s">
         <v>2348</v>
       </c>
@@ -54274,7 +54285,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" ht="14.25" spans="1:18">
       <c r="A58" s="17" t="s">
         <v>2348</v>
       </c>
@@ -54326,7 +54337,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" ht="14.25" spans="1:18">
       <c r="A59" s="17" t="s">
         <v>2348</v>
       </c>
@@ -54378,7 +54389,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" ht="14.25" spans="1:18">
       <c r="A60" s="17" t="s">
         <v>2348</v>
       </c>
@@ -54430,7 +54441,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" ht="14.25" spans="1:18">
       <c r="A61" s="17" t="s">
         <v>2348</v>
       </c>
@@ -54482,7 +54493,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" ht="14.25" spans="1:18">
       <c r="A62" s="17" t="s">
         <v>2348</v>
       </c>
@@ -54534,7 +54545,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" ht="14.25" spans="1:18">
       <c r="A63" s="17" t="s">
         <v>2348</v>
       </c>
@@ -54652,14 +54663,14 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.3796296296296" customWidth="1"/>
+    <col min="1" max="1" width="11.3833333333333" customWidth="1"/>
     <col min="2" max="2" width="40.5" customWidth="1"/>
-    <col min="3" max="3" width="17.8796296296296" customWidth="1"/>
+    <col min="3" max="3" width="17.8833333333333" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="12.1296296296296" customWidth="1"/>
+    <col min="6" max="6" width="12.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -59554,7 +59565,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" ht="14.25" spans="1:6">
       <c r="A254" t="s">
         <v>320</v>
       </c>
@@ -59574,7 +59585,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" ht="14.25" spans="1:6">
       <c r="A255" t="s">
         <v>320</v>
       </c>
@@ -59594,7 +59605,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" ht="14.25" spans="1:6">
       <c r="A256" t="s">
         <v>320</v>
       </c>
@@ -59614,7 +59625,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" ht="14.25" spans="1:6">
       <c r="A257" t="s">
         <v>320</v>
       </c>
@@ -59634,7 +59645,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" ht="14.25" spans="1:6">
       <c r="A258" t="s">
         <v>320</v>
       </c>
@@ -59654,7 +59665,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" ht="14.25" spans="1:6">
       <c r="A259" t="s">
         <v>320</v>
       </c>
@@ -59674,7 +59685,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" ht="14.25" spans="1:6">
       <c r="A260" t="s">
         <v>320</v>
       </c>
@@ -59694,7 +59705,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" ht="14.25" spans="1:6">
       <c r="A261" t="s">
         <v>320</v>
       </c>
@@ -59714,7 +59725,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" ht="14.25" spans="1:6">
       <c r="A262" t="s">
         <v>320</v>
       </c>
@@ -59734,7 +59745,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" ht="14.25" spans="1:6">
       <c r="A263" t="s">
         <v>320</v>
       </c>
@@ -59754,7 +59765,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" ht="14.25" spans="1:6">
       <c r="A264" t="s">
         <v>320</v>
       </c>
@@ -59774,7 +59785,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" ht="14.25" spans="1:6">
       <c r="A265" t="s">
         <v>320</v>
       </c>
@@ -59794,7 +59805,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" ht="14.25" spans="1:6">
       <c r="A266" t="s">
         <v>320</v>
       </c>
@@ -59814,7 +59825,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" ht="14.25" spans="1:6">
       <c r="A267" t="s">
         <v>320</v>
       </c>
@@ -60654,21 +60665,21 @@
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.6296296296296" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="25.6333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.6296296296296" customWidth="1"/>
-    <col min="2" max="2" width="13.8796296296296" customWidth="1"/>
-    <col min="3" max="3" width="20.3796296296296" customWidth="1"/>
-    <col min="4" max="4" width="17.1296296296296" customWidth="1"/>
-    <col min="5" max="7" width="13.8796296296296" customWidth="1"/>
-    <col min="8" max="8" width="10.6296296296296" customWidth="1"/>
-    <col min="9" max="9" width="15.6296296296296" customWidth="1"/>
-    <col min="10" max="12" width="13.8796296296296" customWidth="1"/>
-    <col min="13" max="16" width="12.3796296296296" customWidth="1"/>
+    <col min="1" max="1" width="15.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="13.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="20.3833333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.1333333333333" customWidth="1"/>
+    <col min="5" max="7" width="13.8833333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.6333333333333" customWidth="1"/>
+    <col min="9" max="9" width="15.6333333333333" customWidth="1"/>
+    <col min="10" max="12" width="13.8833333333333" customWidth="1"/>
+    <col min="13" max="16" width="12.3833333333333" customWidth="1"/>
     <col min="17" max="17" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.4" spans="1:17">
+    <row r="1" ht="20.25" spans="1:17">
       <c r="A1" s="14" t="s">
         <v>2592</v>
       </c>
@@ -60916,7 +60927,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" ht="15" spans="1:17">
       <c r="A7" s="17" t="s">
         <v>2592</v>
       </c>
@@ -60955,7 +60966,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" ht="15" spans="1:17">
       <c r="A8" s="17" t="s">
         <v>2592</v>
       </c>
@@ -61217,17 +61228,17 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9.25" customWidth="1"/>
-    <col min="3" max="3" width="11.3796296296296" customWidth="1"/>
+    <col min="3" max="3" width="11.3833333333333" customWidth="1"/>
     <col min="4" max="4" width="9.25" customWidth="1"/>
     <col min="5" max="5" width="10.25" customWidth="1"/>
-    <col min="6" max="6" width="11.3796296296296" customWidth="1"/>
+    <col min="6" max="6" width="11.3833333333333" customWidth="1"/>
     <col min="7" max="7" width="9.25" customWidth="1"/>
     <col min="8" max="10" width="13.5" customWidth="1"/>
-    <col min="11" max="12" width="11.3796296296296" customWidth="1"/>
-    <col min="13" max="13" width="15.6296296296296" customWidth="1"/>
+    <col min="11" max="12" width="11.3833333333333" customWidth="1"/>
+    <col min="13" max="13" width="15.6333333333333" customWidth="1"/>
     <col min="14" max="14" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
